--- a/config_7.27/extra_award_server.xlsx
+++ b/config_7.27/extra_award_server.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_7.27\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="task|任务配置" sheetId="2" r:id="rId1"/>
@@ -26,7 +31,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +63,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +95,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -176,14 +181,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,150 +208,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -363,8 +218,21 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,19 +247,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,176 +269,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -593,251 +293,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
@@ -851,10 +309,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -895,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -928,67 +386,23 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 4" xfId="49"/>
-    <cellStyle name="常规 4 2" xfId="50"/>
+    <cellStyle name="常规 4" xfId="1"/>
+    <cellStyle name="常规 4 2" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1246,21 +660,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="13.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="17.5" style="3" customWidth="1"/>
@@ -1270,7 +683,7 @@
     <col min="6" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="56.1" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="56.1" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1287,83 +700,83 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="43.5" customHeight="1" spans="2:5">
+    <row r="2" spans="1:5" ht="43.5" customHeight="1">
       <c r="B2" s="9"/>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" ht="43.5" customHeight="1" spans="2:5">
+    <row r="3" spans="1:5" ht="43.5" customHeight="1">
       <c r="B3" s="9"/>
       <c r="C3" s="8"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
     </row>
-    <row r="4" ht="43.5" customHeight="1" spans="2:5">
+    <row r="4" spans="1:5" ht="43.5" customHeight="1">
       <c r="B4" s="9"/>
       <c r="C4" s="8"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
     </row>
-    <row r="5" ht="43.5" customHeight="1" spans="2:5">
+    <row r="5" spans="1:5" ht="43.5" customHeight="1">
       <c r="B5" s="9"/>
       <c r="C5" s="8"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" ht="43.5" customHeight="1" spans="2:5">
+    <row r="6" spans="1:5" ht="43.5" customHeight="1">
       <c r="B6" s="9"/>
       <c r="C6" s="8"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="1:5">
       <c r="B7" s="9"/>
       <c r="C7" s="8"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="1:5">
       <c r="B8" s="9"/>
       <c r="C8" s="8"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="1:5">
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="1:5">
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="1:5">
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" s="9" customFormat="1" spans="3:5">
+    <row r="12" spans="1:5" s="9" customFormat="1">
       <c r="C12" s="8"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="1:5">
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" s="9" customFormat="1" spans="3:5">
+    <row r="14" spans="1:5" s="9" customFormat="1">
       <c r="C14" s="8"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="1:5">
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" ht="18.75" customHeight="1" spans="2:5">
+    <row r="16" spans="1:5" ht="18.75" customHeight="1">
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
       <c r="E16" s="2"/>
@@ -1378,152 +791,152 @@
       <c r="C18" s="8"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" s="9" customFormat="1" spans="3:5">
+    <row r="19" spans="2:5" s="9" customFormat="1">
       <c r="C19" s="8"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" s="9" customFormat="1" spans="3:5">
+    <row r="20" spans="2:5" s="9" customFormat="1">
       <c r="C20" s="8"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" s="9" customFormat="1" spans="3:5">
+    <row r="21" spans="2:5" s="9" customFormat="1">
       <c r="C21" s="8"/>
       <c r="D21" s="2"/>
       <c r="E21"/>
     </row>
-    <row r="22" s="9" customFormat="1" spans="3:5">
+    <row r="22" spans="2:5" s="9" customFormat="1">
       <c r="C22" s="8"/>
       <c r="D22" s="2"/>
       <c r="E22"/>
     </row>
-    <row r="23" s="9" customFormat="1" spans="3:5">
+    <row r="23" spans="2:5" s="9" customFormat="1">
       <c r="C23" s="8"/>
       <c r="D23" s="2"/>
       <c r="E23"/>
     </row>
-    <row r="24" s="9" customFormat="1" spans="3:5">
+    <row r="24" spans="2:5" s="9" customFormat="1">
       <c r="C24" s="8"/>
       <c r="D24" s="7"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" s="9" customFormat="1" spans="3:5">
+    <row r="25" spans="2:5" s="9" customFormat="1">
       <c r="C25" s="8"/>
       <c r="D25" s="7"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" s="9" customFormat="1" spans="3:5">
+    <row r="26" spans="2:5" s="9" customFormat="1">
       <c r="C26" s="8"/>
       <c r="D26" s="2"/>
       <c r="E26"/>
     </row>
-    <row r="27" s="9" customFormat="1" spans="3:5">
+    <row r="27" spans="2:5" s="9" customFormat="1">
       <c r="C27" s="8"/>
       <c r="D27" s="2"/>
       <c r="E27"/>
     </row>
-    <row r="28" s="9" customFormat="1" spans="3:5">
+    <row r="28" spans="2:5" s="9" customFormat="1">
       <c r="C28" s="8"/>
       <c r="D28" s="2"/>
       <c r="E28"/>
     </row>
-    <row r="29" s="9" customFormat="1" spans="3:5">
+    <row r="29" spans="2:5" s="9" customFormat="1">
       <c r="C29" s="8"/>
       <c r="D29" s="2"/>
       <c r="E29"/>
     </row>
-    <row r="30" s="9" customFormat="1" spans="3:5">
+    <row r="30" spans="2:5" s="9" customFormat="1">
       <c r="C30" s="8"/>
       <c r="D30" s="2"/>
       <c r="E30"/>
     </row>
-    <row r="31" s="9" customFormat="1" spans="3:5">
+    <row r="31" spans="2:5" s="9" customFormat="1">
       <c r="C31" s="8"/>
       <c r="D31" s="2"/>
       <c r="E31"/>
     </row>
-    <row r="32" s="9" customFormat="1" spans="3:5">
+    <row r="32" spans="2:5" s="9" customFormat="1">
       <c r="C32" s="8"/>
       <c r="D32" s="2"/>
       <c r="E32"/>
     </row>
-    <row r="33" s="9" customFormat="1" spans="3:5">
+    <row r="33" spans="2:5" s="9" customFormat="1">
       <c r="C33" s="8"/>
       <c r="D33" s="2"/>
       <c r="E33"/>
     </row>
-    <row r="34" s="9" customFormat="1" spans="3:5">
+    <row r="34" spans="2:5" s="9" customFormat="1">
       <c r="C34" s="8"/>
       <c r="D34" s="2"/>
       <c r="E34"/>
     </row>
-    <row r="35" s="9" customFormat="1" spans="3:5">
+    <row r="35" spans="2:5" s="9" customFormat="1">
       <c r="C35" s="8"/>
       <c r="D35" s="2"/>
       <c r="E35"/>
     </row>
-    <row r="36" s="9" customFormat="1" spans="3:5">
+    <row r="36" spans="2:5" s="9" customFormat="1">
       <c r="C36" s="8"/>
       <c r="D36" s="2"/>
       <c r="E36"/>
     </row>
-    <row r="37" s="9" customFormat="1" spans="3:5">
+    <row r="37" spans="2:5" s="9" customFormat="1">
       <c r="C37" s="8"/>
       <c r="D37" s="2"/>
       <c r="E37"/>
     </row>
-    <row r="38" s="9" customFormat="1" spans="3:5">
+    <row r="38" spans="2:5" s="9" customFormat="1">
       <c r="C38" s="8"/>
       <c r="D38" s="2"/>
       <c r="E38"/>
     </row>
-    <row r="39" s="9" customFormat="1" spans="3:5">
+    <row r="39" spans="2:5" s="9" customFormat="1">
       <c r="C39" s="8"/>
       <c r="D39" s="2"/>
       <c r="E39"/>
     </row>
-    <row r="40" s="9" customFormat="1" spans="3:5">
+    <row r="40" spans="2:5" s="9" customFormat="1">
       <c r="C40" s="8"/>
       <c r="D40" s="2"/>
       <c r="E40"/>
     </row>
-    <row r="41" s="9" customFormat="1" spans="3:5">
+    <row r="41" spans="2:5" s="9" customFormat="1">
       <c r="C41" s="8"/>
       <c r="D41" s="2"/>
       <c r="E41"/>
     </row>
-    <row r="42" s="9" customFormat="1" spans="3:5">
+    <row r="42" spans="2:5" s="9" customFormat="1">
       <c r="C42" s="8"/>
       <c r="D42" s="2"/>
       <c r="E42"/>
     </row>
-    <row r="43" s="9" customFormat="1" spans="3:5">
+    <row r="43" spans="2:5" s="9" customFormat="1">
       <c r="C43" s="8"/>
       <c r="D43" s="2"/>
       <c r="E43"/>
     </row>
-    <row r="44" s="9" customFormat="1" spans="3:5">
+    <row r="44" spans="2:5" s="9" customFormat="1">
       <c r="C44" s="8"/>
       <c r="D44" s="2"/>
       <c r="E44"/>
     </row>
-    <row r="45" s="9" customFormat="1" spans="3:5">
+    <row r="45" spans="2:5" s="9" customFormat="1">
       <c r="C45" s="8"/>
       <c r="D45" s="2"/>
       <c r="E45"/>
     </row>
-    <row r="46" s="24" customFormat="1" spans="2:5">
+    <row r="46" spans="2:5" s="24" customFormat="1">
       <c r="B46" s="9"/>
       <c r="C46" s="8"/>
       <c r="D46" s="2"/>
       <c r="E46"/>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="2:5">
       <c r="B47" s="9"/>
       <c r="C47" s="8"/>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:5">
       <c r="B48" s="9"/>
       <c r="C48" s="8"/>
     </row>
@@ -4547,43 +3960,43 @@
       <c r="B803" s="24"/>
       <c r="C803" s="7"/>
     </row>
-    <row r="804" spans="3:3">
+    <row r="804" spans="2:3">
       <c r="C804" s="7"/>
     </row>
-    <row r="805" spans="3:3">
+    <row r="805" spans="2:3">
       <c r="C805" s="7"/>
     </row>
-    <row r="806" spans="3:3">
+    <row r="806" spans="2:3">
       <c r="C806" s="7"/>
     </row>
-    <row r="807" spans="3:3">
+    <row r="807" spans="2:3">
       <c r="C807" s="7"/>
     </row>
-    <row r="808" spans="3:3">
+    <row r="808" spans="2:3">
       <c r="C808" s="7"/>
     </row>
-    <row r="809" spans="3:3">
+    <row r="809" spans="2:3">
       <c r="C809" s="7"/>
     </row>
-    <row r="810" spans="3:3">
+    <row r="810" spans="2:3">
       <c r="C810" s="7"/>
     </row>
-    <row r="811" spans="3:3">
+    <row r="811" spans="2:3">
       <c r="C811" s="7"/>
     </row>
-    <row r="812" spans="3:3">
+    <row r="812" spans="2:3">
       <c r="C812" s="7"/>
     </row>
-    <row r="813" spans="3:3">
+    <row r="813" spans="2:3">
       <c r="C813" s="7"/>
     </row>
-    <row r="814" spans="3:3">
+    <row r="814" spans="2:3">
       <c r="C814" s="7"/>
     </row>
-    <row r="815" spans="3:3">
+    <row r="815" spans="2:3">
       <c r="C815" s="7"/>
     </row>
-    <row r="816" spans="3:3">
+    <row r="816" spans="2:3">
       <c r="C816" s="7"/>
     </row>
     <row r="817" spans="3:3">
@@ -6834,25 +6247,23 @@
       <c r="C1565" s="23"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="21.375" style="2" customWidth="1"/>
@@ -6862,7 +6273,7 @@
     <col min="7" max="7" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="42" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -6885,7 +6296,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -6896,13 +6307,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="9">
-        <v>1000702</v>
+        <v>1000703</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -6913,13 +6324,13 @@
         <v>2</v>
       </c>
       <c r="D3" s="9">
-        <v>1000702</v>
+        <v>1000703</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -6930,13 +6341,13 @@
         <v>3</v>
       </c>
       <c r="D4" s="9">
-        <v>1000702</v>
+        <v>1000703</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -6947,13 +6358,13 @@
         <v>4</v>
       </c>
       <c r="D5" s="9">
-        <v>1000702</v>
+        <v>1000703</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -6964,13 +6375,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="9">
-        <v>1000702</v>
+        <v>1000703</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -6981,13 +6392,13 @@
         <v>6</v>
       </c>
       <c r="D7" s="9">
-        <v>1000702</v>
+        <v>1000703</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -6998,13 +6409,13 @@
         <v>7</v>
       </c>
       <c r="D8" s="9">
-        <v>1000702</v>
+        <v>1000703</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -7015,13 +6426,13 @@
         <v>8</v>
       </c>
       <c r="D9" s="9">
-        <v>1000702</v>
+        <v>1000703</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -7032,13 +6443,13 @@
         <v>9</v>
       </c>
       <c r="D10" s="9">
-        <v>1000702</v>
+        <v>1000703</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -7049,33 +6460,33 @@
         <v>10</v>
       </c>
       <c r="D11" s="9">
-        <v>1000702</v>
+        <v>1000703</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="3:5">
+    <row r="12" spans="1:7">
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="22"/>
     </row>
-    <row r="13" spans="3:5">
+    <row r="13" spans="1:7">
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="22"/>
     </row>
-    <row r="14" spans="3:5">
+    <row r="14" spans="1:7">
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="22"/>
     </row>
-    <row r="15" spans="3:5">
+    <row r="15" spans="1:7">
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="22"/>
     </row>
-    <row r="16" spans="3:5">
+    <row r="16" spans="1:7">
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="22"/>
@@ -7125,28 +6536,28 @@
       <c r="D25" s="9"/>
       <c r="E25" s="22"/>
     </row>
-    <row r="26" spans="5:5">
+    <row r="26" spans="3:5">
       <c r="E26" s="22"/>
     </row>
-    <row r="27" spans="5:5">
+    <row r="27" spans="3:5">
       <c r="E27" s="22"/>
     </row>
-    <row r="28" spans="5:5">
+    <row r="28" spans="3:5">
       <c r="E28" s="22"/>
     </row>
-    <row r="29" spans="5:5">
+    <row r="29" spans="3:5">
       <c r="E29" s="22"/>
     </row>
-    <row r="30" spans="5:5">
+    <row r="30" spans="3:5">
       <c r="E30" s="22"/>
     </row>
-    <row r="31" spans="5:5">
+    <row r="31" spans="3:5">
       <c r="E31" s="22"/>
     </row>
-    <row r="32" spans="5:5">
+    <row r="32" spans="3:5">
       <c r="E32" s="22"/>
     </row>
-    <row r="33" spans="5:5">
+    <row r="33" spans="2:5">
       <c r="E33" s="22"/>
     </row>
     <row r="34" spans="2:5">
@@ -7213,32 +6624,29 @@
       <c r="B60" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F60">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:F60"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="13.25" customWidth="1"/>
     <col min="3" max="3" width="19.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:4">
+    <row r="1" spans="1:4" ht="27">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -7252,73 +6660,72 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="3:3">
+    <row r="2" spans="1:4">
       <c r="C2" s="14"/>
     </row>
-    <row r="3" spans="3:3">
+    <row r="3" spans="1:4">
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="1:4">
       <c r="B4" s="15"/>
       <c r="C4" s="7"/>
       <c r="D4" s="16"/>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="1:4">
       <c r="B5" s="15"/>
       <c r="C5" s="7"/>
       <c r="D5" s="16"/>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="1:4">
       <c r="B6" s="15"/>
       <c r="C6" s="7"/>
       <c r="D6" s="16"/>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="1:4">
       <c r="B7" s="15"/>
       <c r="C7" s="7"/>
       <c r="D7" s="16"/>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="1:4">
       <c r="B8" s="15"/>
       <c r="C8" s="7"/>
       <c r="D8" s="16"/>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="1:4">
       <c r="B9" s="15"/>
       <c r="C9" s="7"/>
       <c r="D9" s="16"/>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="1:4">
       <c r="B10" s="17"/>
       <c r="C10" s="18"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="1:4">
       <c r="B11" s="17"/>
       <c r="C11" s="18"/>
       <c r="D11" s="19"/>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="1:4">
       <c r="B12" s="15"/>
       <c r="D12" s="16"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="36" style="3" customWidth="1"/>
@@ -7328,7 +6735,7 @@
     <col min="6" max="6" width="39.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:7">
+    <row r="1" spans="1:7" ht="27">
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
@@ -7351,7 +6758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:7">
+    <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -7370,7 +6777,7 @@
       <c r="F2" s="2"/>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -7388,35 +6795,35 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="11"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="9"/>
       <c r="E5" s="11"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="7"/>
       <c r="E6" s="11"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="7"/>
       <c r="C7" s="8"/>
       <c r="D7" s="7"/>
       <c r="E7" s="11"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="7"/>
       <c r="B8" s="12"/>
       <c r="C8" s="7"/>
@@ -7424,42 +6831,42 @@
       <c r="E8" s="10"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="7"/>
       <c r="E9" s="10"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="7"/>
       <c r="E10" s="10"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="7"/>
       <c r="E11" s="10"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="7"/>
       <c r="E12" s="10"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="7"/>
       <c r="E13" s="10"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="7"/>
       <c r="E14" s="10"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="7"/>
       <c r="E15" s="10"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" s="7"/>
       <c r="E16" s="10"/>
       <c r="F16" s="2"/>
@@ -7484,50 +6891,48 @@
       <c r="E20" s="10"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" s="7"/>
       <c r="E21" s="10"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" s="7"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" s="7"/>
       <c r="E23" s="10"/>
     </row>
-    <row r="24" s="1" customFormat="1" spans="1:5">
+    <row r="24" spans="1:6" s="1" customFormat="1">
       <c r="A24" s="7"/>
       <c r="B24" s="3"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" s="1" customFormat="1" spans="1:5">
+    <row r="25" spans="1:6" s="1" customFormat="1">
       <c r="A25" s="7"/>
       <c r="B25" s="3"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" s="7"/>
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:6">
       <c r="A27" s="7"/>
       <c r="C27" s="8"/>
     </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="1:6">
       <c r="C28" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D26">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:D26"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/config_7.27/extra_award_server.xlsx
+++ b/config_7.27/extra_award_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="727" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="task|任务配置" sheetId="2" r:id="rId1"/>
@@ -161,7 +161,7 @@
     <t>source_type</t>
   </si>
   <si>
-    <t>qlyx_021_xgphb_rank</t>
+    <t>ymshf_017_hldr_rank</t>
   </si>
   <si>
     <t>buyu_3d_get_use_item</t>
@@ -178,10 +178,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -216,16 +216,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,45 +270,23 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,7 +301,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -301,31 +309,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -339,15 +338,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,19 +403,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,7 +487,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,37 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,54 +523,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -548,6 +530,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,7 +553,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,61 +594,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,17 +633,61 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -697,10 +697,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -709,133 +709,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -6846,10 +6846,10 @@
   <sheetPr/>
   <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -7314,8 +7314,8 @@
   <sheetPr/>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -7362,7 +7362,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="9">
-        <v>1000686</v>
+        <v>1000649</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>16</v>
@@ -7381,7 +7381,7 @@
         <v>17</v>
       </c>
       <c r="D3" s="9">
-        <v>1000686</v>
+        <v>1000649</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>16</v>
@@ -7398,7 +7398,7 @@
     <row r="5" spans="1:6">
       <c r="A5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="11"/>
       <c r="F5" s="2"/>
     </row>
